--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -64,18 +64,36 @@
   <si>
     <t>Time allocated</t>
   </si>
+  <si>
+    <t>Time (h)</t>
+  </si>
+  <si>
+    <t>Started bug fixing and writing more functionality to fit my requirtements</t>
+  </si>
+  <si>
+    <t>Started bug fixing and writing more functionality to fit my requirtements. Also fixed all of the ship prefabs and implemented a simple UI system.</t>
+  </si>
+  <si>
+    <t>Placing ships still glitchy. Think its to do with colliders.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -92,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -117,14 +135,37 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="16" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,14 +484,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="67.85546875" customWidth="1"/>
-    <col min="5" max="5" width="136.7109375" customWidth="1"/>
+    <col min="4" max="4" width="67.85546875" customWidth="1" style="3"/>
+    <col min="5" max="5" width="136.7109375" customWidth="1" style="3"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -467,7 +508,7 @@
       </c>
       <c r="C3">
         <f>SUM(C7:C39)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -476,7 +517,7 @@
       </c>
       <c r="C4">
         <f>C2-C3</f>
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
@@ -484,12 +525,12 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -500,10 +541,10 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -514,11 +555,25 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="9" ht="28">
+      <c r="B9" s="2">
+        <v>45348</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -76,18 +76,33 @@
   <si>
     <t>Placing ships still glitchy. Think its to do with colliders.</t>
   </si>
+  <si>
+    <t>Added main menu and options menu</t>
+  </si>
+  <si>
+    <t>Add animations to the camera to look better.</t>
+  </si>
+  <si>
+    <t>Add animations to the camera move to look better.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -110,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -152,11 +167,28 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="bottom"/>
@@ -166,6 +198,9 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment wrapText="1" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="16" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,7 +519,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -508,7 +543,7 @@
       </c>
       <c r="C3">
         <f>SUM(C7:C39)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -517,7 +552,7 @@
       </c>
       <c r="C4">
         <f>C2-C3</f>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -562,7 +597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" ht="28">
+    <row r="9" ht="27">
       <c r="B9" s="2">
         <v>45348</v>
       </c>
@@ -574,6 +609,20 @@
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="4">
+        <v>45349</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -85,18 +85,30 @@
   <si>
     <t>Add animations to the camera move to look better.</t>
   </si>
+  <si>
+    <t>Added arrows for easier building movement</t>
+  </si>
+  <si>
+    <t>Need to redo the dection of whether a ship can be built or not as it doesnt work as intended</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -125,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -184,11 +196,28 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="bottom"/>
@@ -200,6 +229,9 @@
       <alignment wrapText="1" vertical="bottom"/>
     </xf>
     <xf numFmtId="16" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="16" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -519,7 +551,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -543,7 +575,7 @@
       </c>
       <c r="C3">
         <f>SUM(C7:C39)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -552,7 +584,7 @@
       </c>
       <c r="C4">
         <f>C2-C3</f>
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -623,6 +655,20 @@
       </c>
       <c r="E10" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="5">
+        <v>45352</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -91,18 +91,30 @@
   <si>
     <t>Need to redo the dection of whether a ship can be built or not as it doesnt work as intended</t>
   </si>
+  <si>
+    <t>Started recognition of whether ship is hit or missed</t>
+  </si>
+  <si>
+    <t>Have testing arrays at the minute need to combine with building to make the arrays custom</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -137,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -213,11 +225,28 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="bottom"/>
@@ -233,6 +262,16 @@
     </xf>
     <xf numFmtId="16" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="16" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="20" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,7 +590,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -575,7 +614,7 @@
       </c>
       <c r="C3">
         <f>SUM(C7:C39)</f>
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +623,7 @@
       </c>
       <c r="C4">
         <f>C2-C3</f>
-        <v>35</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="6">
@@ -669,6 +708,20 @@
       </c>
       <c r="E11" s="3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="6">
+        <v>45353</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -1,46 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hristo.tentchev.OFFICE-SF\Desktop\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s4203312\Documents\GitHub\Battleships\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8298A94E-C2B4-4C7C-96C7-C94418BFE15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Day</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>What Completed</t>
-  </si>
-  <si>
     <t>What Was Achieved</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Researched into a building like system for pl;acing the battleships</t>
-  </si>
-  <si>
     <t>Found useful video see youtbe saved folder Unity Content</t>
   </si>
   <si>
@@ -53,9 +58,6 @@
     <t>Errors have been found and implementation needs to be changed to fit with the structure of my game.</t>
   </si>
   <si>
-    <t>Total time</t>
-  </si>
-  <si>
     <t>Time Left</t>
   </si>
   <si>
@@ -68,9 +70,6 @@
     <t>Time (h)</t>
   </si>
   <si>
-    <t>Started bug fixing and writing more functionality to fit my requirtements</t>
-  </si>
-  <si>
     <t>Started bug fixing and writing more functionality to fit my requirtements. Also fixed all of the ship prefabs and implemented a simple UI system.</t>
   </si>
   <si>
@@ -80,9 +79,6 @@
     <t>Added main menu and options menu</t>
   </si>
   <si>
-    <t>Add animations to the camera to look better.</t>
-  </si>
-  <si>
     <t>Add animations to the camera move to look better.</t>
   </si>
   <si>
@@ -96,12 +92,18 @@
   </si>
   <si>
     <t>Have testing arrays at the minute need to combine with building to make the arrays custom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Began AI bot to play against </t>
+  </si>
+  <si>
+    <t>Need a lot more work to find neighbours and then get the link to the player action script to get the values of there ships</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,32 +114,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -157,121 +159,60 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment wrapText="1" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="16" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="16" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="16" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="20" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
-      <alignment vertical="bottom"/>
-      <protection/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,61 +527,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="67.85546875" customWidth="1" style="3"/>
-    <col min="5" max="5" width="136.7109375" customWidth="1" style="3"/>
+    <col min="4" max="4" width="67.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="136.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>42</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <f>SUM(C7:C39)</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <f>C2-C3</f>
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>45346</v>
       </c>
@@ -648,13 +589,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>45347</v>
       </c>
@@ -662,13 +603,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" ht="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>45348</v>
       </c>
@@ -676,13 +617,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>45349</v>
       </c>
@@ -690,13 +631,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>45352</v>
       </c>
@@ -704,24 +645,38 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>45353</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>0.5</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <v>45364</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -730,24 +685,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>Day</t>
   </si>
@@ -98,13 +98,25 @@
   </si>
   <si>
     <t>Need a lot more work to find neighbours and then get the link to the player action script to get the values of there ships</t>
+  </si>
+  <si>
+    <t>Added a bounding box for map</t>
+  </si>
+  <si>
+    <t>Added a bounding box for map. Fixed prefab sizes and hit boxes.</t>
+  </si>
+  <si>
+    <t>Added a bounding box for map. Fixed prefab sizes and hit boxes. Created dictionary for all tiles</t>
+  </si>
+  <si>
+    <t>Dictionary created. Need to create one for finding out where player ship placements are and then can link to attacking script.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +154,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -151,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -194,11 +212,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -213,6 +248,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,17 +569,17 @@
   <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D17" sqref="D17" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="67.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="136.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -549,25 +587,25 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
         <f>SUM(C7:C39)</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
         <f>C2-C3</f>
-        <v>33.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -581,7 +619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" s="1">
         <v>45346</v>
       </c>
@@ -595,7 +633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="B8" s="1">
         <v>45347</v>
       </c>
@@ -609,7 +647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" ht="30">
       <c r="B9" s="2">
         <v>45348</v>
       </c>
@@ -623,7 +661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="B10" s="4">
         <v>45349</v>
       </c>
@@ -637,7 +675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" s="5">
         <v>45352</v>
       </c>
@@ -651,7 +689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="B12" s="6">
         <v>45353</v>
       </c>
@@ -665,7 +703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="B13" s="8">
         <v>45364</v>
       </c>
@@ -677,6 +715,20 @@
       </c>
       <c r="E13" s="10" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="28">
+      <c r="B14" s="11">
+        <v>45365</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +742,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -702,7 +754,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -14,8 +14,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -111,12 +109,24 @@
   <si>
     <t>Dictionary created. Need to create one for finding out where player ship placements are and then can link to attacking script.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Made dictionary </t>
+  </si>
+  <si>
+    <t>Made list to record players ship positions. Made dictionary to record names and postions of all the players ships. Change the prefabs so they have referances to corners of tiles for later checks.</t>
+  </si>
+  <si>
+    <t>All dictionarys functioning correctly. To do next is combining all of my work together and and seeing if I can run and hit a ship an it register a hit, using referance points and dictionarys</t>
+  </si>
+  <si>
+    <t>Need to redo the detection of whether a ship can be built or not as it doesnt work as intended</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +170,12 @@
       <color theme="1"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -169,7 +185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -229,11 +245,28 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -250,6 +283,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="16" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -568,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17" activeCellId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -593,7 +629,7 @@
       </c>
       <c r="C3">
         <f>SUM(C7:C39)</f>
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="4">
@@ -602,7 +638,7 @@
       </c>
       <c r="C4">
         <f>C2-C3</f>
-        <v>30.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="6">
@@ -624,7 +660,7 @@
         <v>45346</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>4</v>
@@ -666,7 +702,7 @@
         <v>45349</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>13</v>
@@ -680,13 +716,13 @@
         <v>45352</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -694,7 +730,7 @@
         <v>45353</v>
       </c>
       <c r="C12" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
@@ -717,7 +753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="28">
+    <row r="14" ht="27">
       <c r="B14" s="11">
         <v>45365</v>
       </c>
@@ -729,33 +765,23 @@
       </c>
       <c r="E14" s="3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="15" ht="42">
+      <c r="B15" s="12">
+        <v>45366</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Need to redo the detection of whether a ship can be built or not as it doesnt work as intended</t>
+  </si>
+  <si>
+    <t>Made list to record players ship positions. Made dictionary to record names and postions of all the players ships. Change the prefabs so they have referances to corners of tiles for later checks. Stopped the building section once all ships had been built.</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
   <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16" activeCellId="0"/>
+      <selection activeCell="D16" sqref="D16" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -629,7 +632,7 @@
       </c>
       <c r="C3">
         <f>SUM(C7:C39)</f>
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="4">
@@ -638,7 +641,7 @@
       </c>
       <c r="C4">
         <f>C2-C3</f>
-        <v>25.5</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="6">
@@ -767,15 +770,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="42">
+    <row r="15" ht="55">
       <c r="B15" s="12">
         <v>45366</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>27</v>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -124,12 +124,24 @@
   <si>
     <t>Made list to record players ship positions. Made dictionary to record names and postions of all the players ships. Change the prefabs so they have referances to corners of tiles for later checks. Stopped the building section once all ships had been built.</t>
   </si>
+  <si>
+    <t>Linked all parts together. almost</t>
+  </si>
+  <si>
+    <t>Very difficult today had issues with the dictionaries almost linked just one small issie with the saving of the player ship pos and overwriting the dictionary.</t>
+  </si>
+  <si>
+    <t>Very difficult today had issues with the dictionaries almost linked just one small issue with the saving of the player ship pos and overwriting the dictionary.</t>
+  </si>
+  <si>
+    <t>Very difficult today had issues with the dictionaries almost linked just one small issue with the saving of the player ship pos and overwriting the dictionary. Removed the tile map stuff as decided to go with the arrow and dictionary based method I have already built due to the fact that the tile map wasnt working.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +191,12 @@
       <color theme="1"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -188,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -265,11 +283,28 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -289,6 +324,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="16" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="16" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -608,7 +646,7 @@
   <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16" activeCellId="0"/>
+      <selection activeCell="E18" sqref="E18" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -632,7 +670,7 @@
       </c>
       <c r="C3">
         <f>SUM(C7:C39)</f>
-        <v>17.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="4">
@@ -641,7 +679,7 @@
       </c>
       <c r="C4">
         <f>C2-C3</f>
-        <v>24.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="6">
@@ -770,7 +808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="55">
+    <row r="15" ht="54">
       <c r="B15" s="12">
         <v>45366</v>
       </c>
@@ -782,6 +820,20 @@
       </c>
       <c r="E15" s="3" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="16" ht="42">
+      <c r="B16" s="13">
+        <v>45370</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -8,32 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s4203312\Documents\GitHub\Battleships\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8298A94E-C2B4-4C7C-96C7-C94418BFE15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD14C04-D05D-4C0F-8149-30334710500C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Day</t>
   </si>
@@ -83,9 +70,6 @@
     <t>Added arrows for easier building movement</t>
   </si>
   <si>
-    <t>Need to redo the dection of whether a ship can be built or not as it doesnt work as intended</t>
-  </si>
-  <si>
     <t>Started recognition of whether ship is hit or missed</t>
   </si>
   <si>
@@ -98,24 +82,12 @@
     <t>Need a lot more work to find neighbours and then get the link to the player action script to get the values of there ships</t>
   </si>
   <si>
-    <t>Added a bounding box for map</t>
-  </si>
-  <si>
-    <t>Added a bounding box for map. Fixed prefab sizes and hit boxes.</t>
-  </si>
-  <si>
     <t>Added a bounding box for map. Fixed prefab sizes and hit boxes. Created dictionary for all tiles</t>
   </si>
   <si>
     <t>Dictionary created. Need to create one for finding out where player ship placements are and then can link to attacking script.</t>
   </si>
   <si>
-    <t xml:space="preserve">Made dictionary </t>
-  </si>
-  <si>
-    <t>Made list to record players ship positions. Made dictionary to record names and postions of all the players ships. Change the prefabs so they have referances to corners of tiles for later checks.</t>
-  </si>
-  <si>
     <t>All dictionarys functioning correctly. To do next is combining all of my work together and and seeing if I can run and hit a ship an it register a hit, using referance points and dictionarys</t>
   </si>
   <si>
@@ -128,13 +100,13 @@
     <t>Linked all parts together. almost</t>
   </si>
   <si>
-    <t>Very difficult today had issues with the dictionaries almost linked just one small issie with the saving of the player ship pos and overwriting the dictionary.</t>
-  </si>
-  <si>
-    <t>Very difficult today had issues with the dictionaries almost linked just one small issue with the saving of the player ship pos and overwriting the dictionary.</t>
-  </si>
-  <si>
     <t>Very difficult today had issues with the dictionaries almost linked just one small issue with the saving of the player ship pos and overwriting the dictionary. Removed the tile map stuff as decided to go with the arrow and dictionary based method I have already built due to the fact that the tile map wasnt working.</t>
+  </si>
+  <si>
+    <t>Tried to work out dictionary again</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
@@ -181,20 +153,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <color theme="1"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <color theme="1"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <color theme="1"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -249,56 +221,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -316,19 +258,13 @@
     <xf numFmtId="16" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="16" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="16" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,20 +579,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18" activeCellId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="67.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="136.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -664,25 +600,25 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
         <f>SUM(C7:C39)</f>
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
         <f>C2-C3</f>
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -696,7 +632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>45346</v>
       </c>
@@ -710,7 +646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>45347</v>
       </c>
@@ -724,7 +660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="30">
+    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>45348</v>
       </c>
@@ -738,7 +674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>45349</v>
       </c>
@@ -752,7 +688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>45352</v>
       </c>
@@ -763,10 +699,10 @@
         <v>15</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>45353</v>
       </c>
@@ -774,13 +710,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>45364</v>
       </c>
@@ -788,13 +724,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" ht="27">
+    </row>
+    <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
         <v>45365</v>
       </c>
@@ -802,13 +738,13 @@
         <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" ht="54">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <v>45366</v>
       </c>
@@ -816,13 +752,13 @@
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" ht="42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="13">
         <v>45370</v>
       </c>
@@ -830,10 +766,24 @@
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
+        <v>45371</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>Day</t>
   </si>
@@ -107,13 +107,25 @@
   </si>
   <si>
     <t>Failed</t>
+  </si>
+  <si>
+    <t>Figured out dictionary error. Began work on the AI bot and player choices</t>
+  </si>
+  <si>
+    <t>Figured out dictionary error. Work on the AI bot and player choices.</t>
+  </si>
+  <si>
+    <t>AI can now know when it hits a ship. It can find the neighbours of that tile.</t>
+  </si>
+  <si>
+    <t>AI can now know when it hits a ship. It can find the neighbours of that tile. Need to make sure that AI knows which its has already chosen so it doesnt repeat choices.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +179,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -178,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -242,11 +260,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -265,6 +300,9 @@
     <xf numFmtId="16" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,17 +620,17 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D19" sqref="D19" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="67.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="136.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -600,25 +638,25 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
         <f>SUM(C7:C39)</f>
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
         <f>C2-C3</f>
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -632,7 +670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" s="1">
         <v>45346</v>
       </c>
@@ -646,7 +684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="B8" s="1">
         <v>45347</v>
       </c>
@@ -660,7 +698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" ht="30">
       <c r="B9" s="2">
         <v>45348</v>
       </c>
@@ -674,7 +712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="B10" s="4">
         <v>45349</v>
       </c>
@@ -688,7 +726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" s="5">
         <v>45352</v>
       </c>
@@ -702,7 +740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="B12" s="6">
         <v>45353</v>
       </c>
@@ -716,7 +754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="B13" s="8">
         <v>45364</v>
       </c>
@@ -730,7 +768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" ht="30">
       <c r="B14" s="11">
         <v>45365</v>
       </c>
@@ -744,7 +782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" ht="60">
       <c r="B15" s="12">
         <v>45366</v>
       </c>
@@ -758,7 +796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" ht="45">
       <c r="B16" s="13">
         <v>45370</v>
       </c>
@@ -772,7 +810,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="B17" s="8">
         <v>45371</v>
       </c>
@@ -784,6 +822,20 @@
       </c>
       <c r="E17" s="10" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="18" ht="28">
+      <c r="B18" s="14">
+        <v>45372</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -120,12 +120,33 @@
   <si>
     <t>AI can now know when it hits a ship. It can find the neighbours of that tile. Need to make sure that AI knows which its has already chosen so it doesnt repeat choices.</t>
   </si>
+  <si>
+    <t>Found more assets and a font to usew in the game</t>
+  </si>
+  <si>
+    <t>Added assets and font to game.</t>
+  </si>
+  <si>
+    <t>Found more assets and a font to use in the game</t>
+  </si>
+  <si>
+    <t>Added assets and font to game. Made game look good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still need to fix the AI player then work on the players attactks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still need to fix the AI then work on the players attactks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collision with missle wont work. Still need to fix the AI then work on the players attacks, finally think about having a second map that shows the player where they have hit more miss to increase playablity like in real battleships. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +200,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <family val="2"/>
     </font>
     <font>
@@ -196,7 +223,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -277,11 +304,28 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -301,6 +345,9 @@
     <xf numFmtId="16" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="16" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -620,7 +667,7 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19" activeCellId="0"/>
+      <selection activeCell="E22" sqref="E22" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -644,7 +691,7 @@
       </c>
       <c r="C3">
         <f>SUM(C7:C39)</f>
-        <v>24.5</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="4">
@@ -653,7 +700,7 @@
       </c>
       <c r="C4">
         <f>C2-C3</f>
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="6">
@@ -824,7 +871,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" ht="28">
+    <row r="18" ht="27">
       <c r="B18" s="14">
         <v>45372</v>
       </c>
@@ -836,6 +883,31 @@
       </c>
       <c r="E18" s="3" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="15">
+        <v>45373</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" ht="28">
+      <c r="B20" s="15">
+        <v>45374</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -141,12 +141,21 @@
   <si>
     <t xml:space="preserve">Collision with missle wont work. Still need to fix the AI then work on the players attacks, finally think about having a second map that shows the player where they have hit more miss to increase playablity like in real battleships. </t>
   </si>
+  <si>
+    <t>https://freesound.org/people/deleted_user_13668154/sounds/616309/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://freesound.org/people/deleted_user_13668154/sounds/616309/ </t>
+  </si>
+  <si>
+    <t>https://freesound.org/people/deleted_user_13668154/sounds/616309/          https://freesound.org/people/tim.kahn/sounds/174763/        https://www.1001freefonts.com/largely-define.font</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +221,19 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <color theme="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="10"/>
+      <u val="single"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -325,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -349,6 +371,12 @@
     </xf>
     <xf numFmtId="16" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,7 +695,7 @@
   <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22" activeCellId="0"/>
+      <selection activeCell="B21" sqref="B21" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -885,7 +913,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="28">
       <c r="B19" s="15">
         <v>45373</v>
       </c>
@@ -895,8 +923,11 @@
       <c r="D19" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" ht="28">
+      <c r="E19" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" ht="27">
       <c r="B20" s="15">
         <v>45374</v>
       </c>
@@ -911,6 +942,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E19" display="https://freesound.org/people/deleted_user_13668154/sounds/616309/ " r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>